--- a/data/financial_statements/soci/PCAR.xlsx
+++ b/data/financial_statements/soci/PCAR.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -125,9 +245,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -180,12 +297,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -482,2049 +596,2091 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN35"/>
+  <dimension ref="A1:AO35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>8129500000</v>
+      </c>
+      <c r="C2">
         <v>7058900000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>7158700000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>6472600000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>6686100000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>5146800000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>5843900000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>5845500000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>5568600000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>4936000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>3062200000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>5161700000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>6117199000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>6367000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>6627900000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>6487600000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>6279698000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>5756800000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>5805200000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>5654000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>5454600000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>5059700000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>4704200000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>4237900000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>4070700000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>4249400000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>4413200000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>4300000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>4355300000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>4847200000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>5079900000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>4832700000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>5119100000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>4928400000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>4569600000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>4379900000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>4598901000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>4300100000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>4300500000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>3924300000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>0.2159</v>
+      </c>
+      <c r="C3">
         <v>0.3715</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.225</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.1073</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.2007</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.0427</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.9084</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.1325</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-0.0897</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.2248</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-0.538</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>-0.2044</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>-0.0259</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.106</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.1417</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.1474</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.1513</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.1378</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.234</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.3342</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.34</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.1907</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.0659</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>-0.0144</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>-0.0653</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>-0.1233</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>-0.1312</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>-0.1102</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>-0.1492</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>-0.0165</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>0.1117</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>0.1034</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>0.1131</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>0.1461</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>0.0626</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>0.1161</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>0.1506</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>0.1256</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>-0.0352</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>-0.1783</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>6505200000</v>
+      </c>
+      <c r="C4">
         <v>5689300000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>5811000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>5285500000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>5584800000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>4176200000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>4659400000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>4689700000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>4487000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>3958300000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>2441500000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>4189600000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>4890000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>5106800000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>5341700000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>5217100000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>5088601000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>4653600000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>4647300000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>4535500000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>4418401000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>4055600000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>3764000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>3390900000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>3259100000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>3371500000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>3489400000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>3413600000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>3469400000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>3851300000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>4061200000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>3910200000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>4160400000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>4006300000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>3719400000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>3595500000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>3725699000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>3491100000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>3494600000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>3189300000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>1624300000</v>
+      </c>
+      <c r="C5">
         <v>1369600000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1347700000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1187100000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1101300000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>970599600</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1184500000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1155800000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1081599000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>977700000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>620700000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>972100100</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>1227199000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>1260200000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>1286200000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>1270500000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>1191098000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>1103200000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>1157900000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>1118500000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>1036199000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>1004100000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>940200200</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>847000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>811600600</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>877899900</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>923800300</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>886399900</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>885900100</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>995900100</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>1018700000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>922500200</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>958700200</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>922099900</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>850200200</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>784399900</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>873201900</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>809000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>805899900</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>735000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>99900000</v>
+      </c>
+      <c r="C6">
         <v>82900000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>80400000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>78000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>87100000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>72500000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>84400000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>80100000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>71700000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>64700000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>66500000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>71000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>83600000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>82200000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>82500000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>78300000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>80500000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>72900000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>76700000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>76000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>70600000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>67000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>66100000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>61000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>67600000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>59200000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>60800000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>59600000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>66700000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>57600000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>59300000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>56200000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>62500000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>50500000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>49900000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>52700000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>60900000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>56600000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>61800000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>72100000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>194800000</v>
+      </c>
+      <c r="C7">
         <v>171000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>176800000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>183700000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>182700100</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>168600000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>164400000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>161100000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>165500000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>131700000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>120200000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>164000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>183200000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>172600000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>173300000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>169400000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>166200000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>153500000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>156800000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>168200000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>148000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>144900000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>138700000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>140200000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>141900000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>130800000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>135300000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>134800000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>145400000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>131000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>132100000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>133000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>140100000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>136700000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>139600000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>145000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>147600000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>134700000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>136000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>141200000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>1329600000</v>
+      </c>
+      <c r="C8">
         <v>978300300</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>945100600</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>781899900</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>641098600</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>509699700</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>655200200</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>635899400</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>552398400</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>518799800</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>209899900</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>507700200</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>718500000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>810100100</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>846799800</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>845400400</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>766799300</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>698299800</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>738900400</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>687899900</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>628800300</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>606000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>562600100</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>466100100</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>436800800</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>525299800</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>680900400</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>-401500000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>528900400</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>654799800</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>681399900</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>592900400</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>607601100</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>587599600</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>512300300</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>442399900</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>516200200</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>477500000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>469200000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>377599900</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9">
         <v>7000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>11000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>10000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>2000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>9000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>189100000</v>
+      </c>
+      <c r="C10">
         <v>20800000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>24000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>7800000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>5000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>24100000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>20400000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>28800000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>35100000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>32200000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>27400000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>43300000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>47200000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>48000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>50200000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>43100000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>32600000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>41600000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>29300000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>22600000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>29100000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>28500000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>25500000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>20100000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>21000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>33800000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>35100000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>30400000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>31700000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>34100000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>30900000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>33600000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>32300000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>36100000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>32800000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>38000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>40600000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>41200000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>39000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>40400000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>-154100000</v>
+      </c>
+      <c r="C11">
         <v>1400000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-23000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-10500000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1700000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-22500000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-14900000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-27600000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-30600000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-28900000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>-25900000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-45500000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>-30700000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>-32500000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>-32400000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>-26000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>-14400000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>-29500000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>-19300000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>-18500000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>-24500000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>-24200000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>-23600000</v>
-      </c>
-      <c r="X11">
-        <v>-17900000</v>
       </c>
       <c r="Y11">
         <v>-17900000</v>
       </c>
       <c r="Z11">
+        <v>-17900000</v>
+      </c>
+      <c r="AA11">
         <v>-30400000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>-34700000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>-28100000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>-30200000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>-30300000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>-29200000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>-31200000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>-29900000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>-35200000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>-31300000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>-35900000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>-31300000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>-37500000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>-36300000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>-40400000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>1175500000</v>
+      </c>
+      <c r="C12">
         <v>979700000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>922100000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>771400000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>642800100</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>487200000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>640300000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>608300000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>521800000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>489900000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>184000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>462200000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>687800000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>777600000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>814400000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>819400000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>752399900</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>668800000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>719600000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>669400000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>604300000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>581800000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>539000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>448200000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>418900000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>494900000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>646200000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>-429600000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>498700100</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>624500000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>652200000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>561700000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>577700000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>552400000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>481000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>406500000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>484900000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>440000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>432900000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>337200000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>254200000</v>
+      </c>
+      <c r="C13">
         <v>210300000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>201700000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>170900000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>137500000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>106700000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>144800000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>137500000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>116000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>104400000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>36300000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>102800000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>156500000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>169700000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>194700000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>190400000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>174300000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>123500000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>160000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>157300000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>15100000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>179100000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>166000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>137900000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>130100000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>148700000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>164900000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>165000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>151500000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>193300000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>205000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>183300000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>183400000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>181000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>161800000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>132600000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>150700000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>130600000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>141300000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>101100000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>921300000</v>
+      </c>
+      <c r="C14">
         <v>769400000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>720400000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>600500000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>505300100</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>380500000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>495500000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>470800000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>405800000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>385500000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>147700000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>359400000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>531300000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>607900000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>619700000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>629000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>578100000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>545300000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>559600000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>512100000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>589200100</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>402700000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>373000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>310300000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>288800000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>346200000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>481300000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>-594600000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>347200000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>431200000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>447200000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>378400000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>394300000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>371400000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>319200000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>273900000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>334200000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>309400000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>291600000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>236100000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15">
         <v>-100</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>200</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>0</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>-100</v>
-      </c>
-      <c r="T15">
-        <v>100</v>
       </c>
       <c r="U15">
         <v>100</v>
       </c>
       <c r="V15">
+        <v>100</v>
+      </c>
+      <c r="W15">
         <v>0</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>0</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>0</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>100</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>0</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>0</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>921300000</v>
+      </c>
+      <c r="C16">
         <v>769400000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>720400000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>600500000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>505300000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>380500000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>495500000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>470800000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>405800000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>385500000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>147700000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>359400000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>531299800</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>607900000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>619700000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>629000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>578100100</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>545300000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>559600000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>512100000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>589200000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>402700000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>373000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>310300000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>288800000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>346200000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>481300000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>-594600000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>347200000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>431200000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>447200000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>378400000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>394300000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>371400000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>319200000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>273900000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>334200000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>309400000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>291600000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>236100000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>2.21</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>2.07</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>1.72</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>1.47</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1.09</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>1.42</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>1.35</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>1.17</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>1.11</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>0.43</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>1.04</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>1.53</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>1.75</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>1.79</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>1.81</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>1.66</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>1.55</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>1.59</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>1.45</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>1.67</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>1.14</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>1.06</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>0.88</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>0.82</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>0.99</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>1.37</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>-1.69</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>0.98</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>1.21</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>1.26</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>1.07</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>1.11</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>1.05</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>0.9</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>0.77</v>
-      </c>
-      <c r="AK17">
-        <v>0.87</v>
       </c>
       <c r="AL17">
         <v>0.87</v>
       </c>
       <c r="AM17">
+        <v>0.87</v>
+      </c>
+      <c r="AN17">
         <v>0.82</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>0.67</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
         <v>2.21</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>2.07</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>1.72</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>1.47</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>1.08</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>1.41</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>1.35</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>1.17</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>1.11</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>0.43</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>1.03</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>1.53</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>1.75</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>1.78</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>1.81</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>1.65</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>1.55</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>1.59</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>1.45</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>1.67</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>1.14</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>1.06</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>0.88</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>0.82</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>0.98</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>1.37</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>-1.69</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>0.98</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>1.21</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>1.26</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>1.06</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>1.11</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>1.04</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>0.9</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>0.77</v>
-      </c>
-      <c r="AK18">
-        <v>0.87</v>
       </c>
       <c r="AL18">
         <v>0.87</v>
       </c>
       <c r="AM18">
+        <v>0.87</v>
+      </c>
+      <c r="AN18">
         <v>0.82</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>0.67</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
-        <v>348400000</v>
+        <v>348600000</v>
       </c>
       <c r="C19">
         <v>348400000</v>
       </c>
       <c r="D19">
+        <v>348400000</v>
+      </c>
+      <c r="E19">
         <v>348300000</v>
-      </c>
-      <c r="E19">
-        <v>347800000</v>
       </c>
       <c r="F19">
         <v>347800000</v>
@@ -2533,2054 +2689,2099 @@
         <v>347800000</v>
       </c>
       <c r="H19">
+        <v>347800000</v>
+      </c>
+      <c r="I19">
         <v>347600000</v>
-      </c>
-      <c r="I19">
-        <v>346800000</v>
       </c>
       <c r="J19">
         <v>346800000</v>
       </c>
       <c r="K19">
+        <v>346800000</v>
+      </c>
+      <c r="L19">
         <v>346400000</v>
-      </c>
-      <c r="L19">
-        <v>346900000</v>
       </c>
       <c r="M19">
         <v>346900000</v>
       </c>
       <c r="N19">
+        <v>346900000</v>
+      </c>
+      <c r="O19">
         <v>346600000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>347000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>347200000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>351000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>350700000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>351700000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>352500000</v>
-      </c>
-      <c r="U19">
-        <v>351900000</v>
       </c>
       <c r="V19">
         <v>351900000</v>
       </c>
       <c r="W19">
+        <v>351900000</v>
+      </c>
+      <c r="X19">
         <v>351800000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>351600000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>351100000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>351000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>350900000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>351300000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>354600000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>355000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>355300000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>355100000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>355000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>355200000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>355100000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>354900000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>354200000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>354400000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>354100000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>354000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>349200000</v>
+      </c>
+      <c r="C20">
         <v>348900000</v>
-      </c>
-      <c r="C20">
-        <v>348800000</v>
       </c>
       <c r="D20">
         <v>348800000</v>
       </c>
       <c r="E20">
+        <v>348800000</v>
+      </c>
+      <c r="F20">
         <v>348400000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>348300000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>348500000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>348400000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>347400000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>347600000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>346800000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>347300000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>347500000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>347200000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>347700000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>347800000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>351800000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>351500000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>352500000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>353500000</v>
-      </c>
-      <c r="U20">
-        <v>352900000</v>
       </c>
       <c r="V20">
         <v>352900000</v>
       </c>
       <c r="W20">
-        <v>352700000</v>
+        <v>352900000</v>
       </c>
       <c r="X20">
         <v>352700000</v>
       </c>
       <c r="Y20">
-        <v>351800000</v>
+        <v>352700000</v>
       </c>
       <c r="Z20">
         <v>351800000</v>
       </c>
       <c r="AA20">
+        <v>351800000</v>
+      </c>
+      <c r="AB20">
         <v>351600000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>351300000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>355600000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>355900000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>356300000</v>
-      </c>
-      <c r="AF20">
-        <v>356100000</v>
       </c>
       <c r="AG20">
         <v>356100000</v>
       </c>
       <c r="AH20">
-        <v>356300000</v>
+        <v>356100000</v>
       </c>
       <c r="AI20">
         <v>356300000</v>
       </c>
       <c r="AJ20">
+        <v>356300000</v>
+      </c>
+      <c r="AK20">
         <v>356000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>355200000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>355400000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>355000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>354800000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>0.1998</v>
+      </c>
+      <c r="C21">
         <v>0.194</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.1883</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.1834</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.1647</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.1886</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.2027</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.1977</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.1942</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.1981</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.2027</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.1883</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.2006</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.1979</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.1941</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.1958</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.1897</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.1916</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0.1995</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.1978</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.19</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.1985</v>
-      </c>
-      <c r="W21">
-        <v>0.1999</v>
       </c>
       <c r="X21">
         <v>0.1999</v>
       </c>
       <c r="Y21">
+        <v>0.1999</v>
+      </c>
+      <c r="Z21">
         <v>0.1994</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>0.2066</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>0.2093</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>0.2061</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>0.2034</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.2055</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>0.2005</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>0.1909</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>0.1873</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>0.1871</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>0.1861</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>0.1791</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>0.1899</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>0.1881</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>0.1874</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>0.1873</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>0.1636</v>
+      </c>
+      <c r="C22">
         <v>0.1386</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.132</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.1208</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.0959</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.099</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.1121</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.1088</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.0992</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.1051</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.06850000000000001</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.0984</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.1175</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>0.1272</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>0.1278</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.1303</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>0.1221</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>0.1213</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>0.1273</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>0.1217</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.1153</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.1198</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.1196</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>0.11</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>0.1073</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>0.1236</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>0.1543</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>-0.0934</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>0.1214</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>0.1351</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>0.1341</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>0.1227</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>0.1187</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>0.1192</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>0.1121</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>0.101</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>0.1122</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>0.111</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>0.1091</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>0.09619999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>0.1446</v>
+      </c>
+      <c r="C23">
         <v>0.1388</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.1288</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.1192</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.0961</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.09470000000000001</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.1096</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.1041</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.09370000000000001</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>0.0993</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>0.0601</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>0.0895</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>0.1124</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>0.1221</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>0.1229</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>0.1263</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>0.1198</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>0.1162</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>0.124</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>0.1184</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>0.1108</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0.115</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0.1146</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>0.1058</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>0.1029</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>0.1165</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>0.1464</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>-0.0999</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>0.1145</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>0.1288</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>0.1284</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>0.1162</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>0.1129</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>0.1121</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>0.1053</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>0.09279999999999999</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>0.1054</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>0.1023</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>0.1007</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>0.0859</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>0.1133</v>
+      </c>
+      <c r="C24">
         <v>0.109</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.1006</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.09279999999999999</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.0756</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.07389999999999999</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.0848</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>0.0805</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>0.07290000000000001</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>0.0781</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>0.0482</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>0.0696</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>0.08690000000000001</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>0.0955</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>0.0935</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>0.097</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>0.0921</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>0.09470000000000001</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>0.0964</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>0.0906</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>0.108</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>0.0796</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>0.0793</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>0.0732</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>0.0709</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>0.0815</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>0.1091</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>-0.1383</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>0.07969999999999999</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>0.089</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>0.08799999999999999</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>0.07829999999999999</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>0.077</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>0.07539999999999999</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>0.0699</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>0.0625</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>0.0727</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>0.07199999999999999</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>0.0678</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>0.0602</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25">
         <v>1181300000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>1142001000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>967599900</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>852098600</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>719599700</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>885900200</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>887599400</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>821898400</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>784999800</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>451199900</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>779700200</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>1003400000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>1082200000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>1285700000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>926800400</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>1026499000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>950899800</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>1007200000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>961399900</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>922000300</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>892100000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>831600100</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>725300100</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>684300800</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>775499800</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>933800400</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>-159000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>756700400</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>885699800</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>908699900</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>814000400</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>562501100</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>817699600</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>740000300</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>662199900</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>738200200</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>683900000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>666799900</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>562299900</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>1329600000</v>
+      </c>
+      <c r="C26">
         <v>978300300</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>945100600</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>781899900</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>641101100</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>509699700</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>655200200</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>635899400</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>552398900</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>518799800</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>209899900</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>507700200</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>718500500</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>810100100</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>846799800</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>845400400</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>766800300</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>698299800</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>738900400</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>687899900</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>628799800</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>606000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>562600100</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>466100100</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>436800800</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>525299800</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>680900400</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>-401500000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>528899900</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>654799800</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>681399900</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>592900400</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>607600600</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>587599600</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>512300300</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>442399900</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>516200200</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>477500000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>469200000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>377599900</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>921300000</v>
+      </c>
+      <c r="C27">
         <v>769400000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>720400000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>600500000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>505300100</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>380500000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>495500000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>470800000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>405800000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>385500000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>147700000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>359400000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>531300000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>607900000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>619700000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>629000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>578100000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>545300000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>559600000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>512100000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>589200100</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>402700000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>373000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>310300000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>288800000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>346200000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>481300000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>-594600000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>347200000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>431200000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>447200000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>378400000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>394300000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>371400000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>319200000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>273900000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>334200000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>309400000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>291600000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>236100000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>921300000</v>
+      </c>
+      <c r="C28">
         <v>769400000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>720400000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>600500000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>505300100</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>380500000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>495500000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>470800000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>405800000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>385500000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>147700000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>359400000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>531300000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>607900000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>619700000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>629000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>578100000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>545300000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>559600000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>512100000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>589200100</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>402700000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>373000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>310300000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>288800000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>346200000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>481300000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>-594600000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>347200000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>431200000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>447200000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>378400000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>394300000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>371400000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>319200000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>273900000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>334200000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>309400000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>291600000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>236100000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>2.6429</v>
+      </c>
+      <c r="C29">
         <v>2.2084</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>2.0677</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>1.7241</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>1.4521</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>1.094</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>1.4247</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>1.3544</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>1.1699</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>1.1116</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>0.4264</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>1.036</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>1.5321</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>1.7539</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>1.7859</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>1.8116</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>1.6551</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>1.5549</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>1.5911</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>1.4528</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>1.6733</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>1.1444</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>1.0603</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>0.8825</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>0.8205</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>0.9863</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>1.3716</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>-1.6926</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>0.9845</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>1.2146</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>1.2587</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>1.0656</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>1.1113</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>1.0456</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>0.8989</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>0.7718</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>0.9434</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>0.873</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>0.8235</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>0.6669</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>2.6383</v>
+      </c>
+      <c r="C30">
         <v>2.2052</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>2.0654</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>1.7216</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>1.4504</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>1.0924</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>1.4218</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>1.3513</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>1.1677</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>1.109</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>0.4259</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>1.0348</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>1.53</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>1.7509</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>1.7823</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>1.8085</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>1.6521</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>1.5514</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>1.5875</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>1.4487</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>1.6685</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>1.1411</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>1.0576</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>0.8798</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>0.8225</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>0.9841</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>1.3689</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>-1.6926</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>0.9814000000000001</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>1.2116</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>1.2551</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>1.0626</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>1.1081</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>1.0424</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>0.8959</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>0.7694</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>0.9402</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>0.8706</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>0.8214</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>0.6654</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>2.6429</v>
+      </c>
+      <c r="C31">
         <v>2.2084</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>2.0677</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>1.7241</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>1.4521</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>1.094</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>1.4247</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>1.3544</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>1.1699</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>1.1116</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>0.4264</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>1.036</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>1.5321</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>1.7539</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>1.7859</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>1.8116</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>1.6551</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>1.5549</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>1.5911</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>1.4528</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>1.6733</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>1.1444</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>1.0603</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>0.8825</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>0.8205</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>0.9863</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>1.3716</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>-1.6926</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>0.9845</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>1.2146</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>1.2587</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>1.0656</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>1.1113</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>1.0456</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>0.8989</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>0.7718</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>0.9434</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>0.873</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>0.8235</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>0.6669</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>2.6383</v>
+      </c>
+      <c r="C32">
         <v>2.2052</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>2.0654</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>1.7216</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>1.4504</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>1.0924</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>1.4218</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>1.3513</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>1.1677</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>1.109</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>0.4259</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>1.0348</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>1.53</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>1.7509</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>1.7823</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>1.8085</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>1.6521</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>1.5514</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>1.5875</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>1.4487</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>1.6685</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>1.1411</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>1.0576</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>0.8798</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>0.8225</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>0.9841</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>1.3689</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>-1.6926</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>0.9814000000000001</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>1.2116</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>1.2551</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>1.0626</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>1.1081</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>1.0424</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>0.8959</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>0.7694</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>0.9402</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>0.8706</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>0.8214</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>0.6654</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33">
         <v>348900000</v>
-      </c>
-      <c r="C33">
-        <v>348800000</v>
       </c>
       <c r="D33">
         <v>348800000</v>
       </c>
       <c r="E33">
+        <v>348800000</v>
+      </c>
+      <c r="F33">
         <v>348500000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>348300000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>348500000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>348400000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>348000000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>347600000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>346800000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>347300000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>347400000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>347200000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>347700000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>347800000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>349600000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>351500000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>352500000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>353500000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>353200000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>352900000</v>
-      </c>
-      <c r="W33">
-        <v>352700000</v>
       </c>
       <c r="X33">
         <v>352700000</v>
       </c>
       <c r="Y33">
+        <v>352700000</v>
+      </c>
+      <c r="Z33">
         <v>351900000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>351800000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>351600000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>351300000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>353900000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>355900000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>356300000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>356100000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>355800000</v>
-      </c>
-      <c r="AH33">
-        <v>356300000</v>
       </c>
       <c r="AI33">
         <v>356300000</v>
       </c>
       <c r="AJ33">
+        <v>356300000</v>
+      </c>
+      <c r="AK33">
         <v>356000000</v>
-      </c>
-      <c r="AK33">
-        <v>355400000</v>
       </c>
       <c r="AL33">
         <v>355400000</v>
       </c>
       <c r="AM33">
+        <v>355400000</v>
+      </c>
+      <c r="AN33">
         <v>355000000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>354800000</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
         <v>0.1673</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>0.1595</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>0.1495</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.1274</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0.1398</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>0.1516</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>0.1518</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0.1476</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>0.159</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>0.1473</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>0.1511</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>0.164</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>0.17</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>0.194</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>0.1429</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>0.1635</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>0.1652</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>0.1735</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>0.17</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>0.169</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>0.1763</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>0.1768</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>0.1711</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>0.1681</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>0.1825</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>0.2116</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>-0.037</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>0.1737</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>0.1827</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>0.1789</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>0.1684</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>0.1099</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>0.1659</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>0.1619</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>0.1512</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>0.1605</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>0.159</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>0.1551</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>0.1433</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B35">
+        <v>0.1536</v>
+      </c>
+      <c r="C35">
         <v>0.0964</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>0.0892</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>0.07099999999999999</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>0.155</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>0.0549</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>0.0566</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>0.09180000000000001</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>0.1427</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>0.1685</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>0.3053</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>0.0825</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>0.1543</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>0.1142</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>0.1247</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>0.056</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>0.1696</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>0.1266</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>0.116</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>0.0929</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>0.1638</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>0.126</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>0.1222</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>0.1441</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>0.1991</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>-0.0374</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>0.1934</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>0.1851</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>0.1618</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>0.137</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>0.1399</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>0.0985</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>0.102</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>0.1544</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>0.1215</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>0.06519999999999999</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>0.1469</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>0.1274</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>0.1787</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>0.0979</v>
       </c>
     </row>
